--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.3732763333333333</v>
+      </c>
+      <c r="H2">
+        <v>1.119829</v>
+      </c>
+      <c r="I2">
+        <v>0.3554258969843855</v>
+      </c>
+      <c r="J2">
+        <v>0.3554258969843855</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.346040666666667</v>
-      </c>
-      <c r="H2">
-        <v>7.038122</v>
-      </c>
-      <c r="I2">
-        <v>0.7615156690656123</v>
-      </c>
-      <c r="J2">
-        <v>0.7615156690656123</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>178.6073330397922</v>
+        <v>0.02097464602088889</v>
       </c>
       <c r="R2">
-        <v>1607.46599735813</v>
+        <v>0.188771814188</v>
       </c>
       <c r="S2">
-        <v>0.7603797911070423</v>
+        <v>0.1397316937543334</v>
       </c>
       <c r="T2">
-        <v>0.7603797911070423</v>
+        <v>0.1397316937543334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>0.2034900933317778</v>
+        <v>0.03237711817522222</v>
       </c>
       <c r="R3">
-        <v>1.831410839986</v>
+        <v>0.291394063577</v>
       </c>
       <c r="S3">
-        <v>0.0008663124409651045</v>
+        <v>0.2156942032300521</v>
       </c>
       <c r="T3">
-        <v>0.0008663124409651045</v>
+        <v>0.2156942032300521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.668317</v>
+      </c>
+      <c r="H4">
+        <v>2.004951</v>
+      </c>
+      <c r="I4">
+        <v>0.6363574327729865</v>
+      </c>
+      <c r="J4">
+        <v>0.6363574327729865</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.346040666666667</v>
-      </c>
-      <c r="H4">
-        <v>7.038122</v>
-      </c>
-      <c r="I4">
-        <v>0.7615156690656123</v>
-      </c>
-      <c r="J4">
-        <v>0.7615156690656123</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.06331885557977777</v>
+        <v>0.03755317777466667</v>
       </c>
       <c r="R4">
-        <v>0.569869700218</v>
+        <v>0.337978599972</v>
       </c>
       <c r="S4">
-        <v>0.000269565517604822</v>
+        <v>0.2501767672782581</v>
       </c>
       <c r="T4">
-        <v>0.000269565517604822</v>
+        <v>0.250176767278258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>50.87990105676833</v>
+        <v>0.05796825717366667</v>
       </c>
       <c r="R5">
-        <v>457.9191095109149</v>
+        <v>0.5217143145630001</v>
       </c>
       <c r="S5">
-        <v>0.2166095192097914</v>
+        <v>0.3861806654947285</v>
       </c>
       <c r="T5">
-        <v>0.2166095192097914</v>
+        <v>0.3861806654947285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,25 +773,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H6">
-        <v>2.004951</v>
+        <v>0.025888</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08673766666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>0.260213</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.001137616041476965</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P6">
-        <v>0.001137616041476965</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q6">
-        <v>0.05796825717366667</v>
+        <v>0.0004848879928888889</v>
       </c>
       <c r="R6">
-        <v>0.521714314563</v>
+        <v>0.004363991936</v>
       </c>
       <c r="S6">
-        <v>0.0002467865710235525</v>
+        <v>0.003230291489068584</v>
       </c>
       <c r="T6">
-        <v>0.0002467865710235524</v>
+        <v>0.003230291489068583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,241 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H7">
-        <v>2.004951</v>
+        <v>0.025888</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02698966666666667</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N7">
-        <v>0.080969</v>
+        <v>0.260213</v>
       </c>
       <c r="O7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q7">
-        <v>0.01803765305766666</v>
+        <v>0.0007484882382222224</v>
       </c>
       <c r="R7">
-        <v>0.162338877519</v>
+        <v>0.006736394144000001</v>
       </c>
       <c r="S7">
-        <v>7.679117441944107E-05</v>
+        <v>0.00498637875355933</v>
       </c>
       <c r="T7">
-        <v>7.679117441944105E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.06639399999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.199182</v>
-      </c>
-      <c r="I8">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="J8">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>5.054667397003333</v>
-      </c>
-      <c r="R8">
-        <v>45.49200657303</v>
-      </c>
-      <c r="S8">
-        <v>0.02151908812496897</v>
-      </c>
-      <c r="T8">
-        <v>0.02151908812496897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.06639399999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.199182</v>
-      </c>
-      <c r="I9">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="J9">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>0.005758860640666667</v>
-      </c>
-      <c r="R9">
-        <v>0.051829745766</v>
-      </c>
-      <c r="S9">
-        <v>2.451702948830831E-05</v>
-      </c>
-      <c r="T9">
-        <v>2.451702948830831E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.06639399999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.199182</v>
-      </c>
-      <c r="I10">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="J10">
-        <v>0.02155123397915336</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>0.001791951928666667</v>
-      </c>
-      <c r="R10">
-        <v>0.016127567358</v>
-      </c>
-      <c r="S10">
-        <v>7.62882469607143E-06</v>
-      </c>
-      <c r="T10">
-        <v>7.62882469607143E-06</v>
+        <v>0.004986378753559329</v>
       </c>
     </row>
   </sheetData>
